--- a/勤怠管理_テンプレート.xlsx
+++ b/勤怠管理_テンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\uemura.masaru\git\alexa-attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457578B0-2C8F-44EB-87B7-AE8840226CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829710A5-AB7B-46AC-9282-55D57F8C8765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="885" windowWidth="26295" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29160" yWindow="510" windowWidth="26295" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業記録" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>&lt;日付別集計&gt;</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>開始時刻</t>
-  </si>
-  <si>
-    <t>オフ</t>
   </si>
   <si>
     <t>終了時刻</t>
@@ -6977,21 +6974,19 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7004,7 +6999,7 @@
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="14"/>
     </row>
@@ -7050,13 +7045,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
